--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +479,6 @@
           <t>date_close</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -522,13 +517,26 @@
           <t>СРО-С-085-27112009</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
         <is>
           <t>11.06.2015</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,26 @@
           <t>date_close</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>num_sv</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>date_open</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>basis</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>status_sv</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -489,27 +509,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ООО "Центр"</t>
+          <t>ИП Коростелёва Зоя Алексеевна</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0278128540</t>
+          <t>770965012811</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1060278109055</t>
+          <t>306770000229215</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Является членом</t>
+          <t>Исключен</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ЮЛ</t>
+          <t>ИП</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -519,6 +539,10 @@
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -533,10 +557,53 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>11.06.2015</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>02.12.2009</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>30.01.2015</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0003.02-2012-770965012811-С-СРО-С-085-27112009 &amp;downarrow;</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>02.12.2009</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Протокол Правления №06 от 02.12.2009 г.</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Прекращено
+                    &amp;downarrow;</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
